--- a/xl.xlsx
+++ b/xl.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="b ( 1 )" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="d ( 3 )" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="F ( 4 )" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -436,7 +437,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -591,7 +591,6 @@
       <c r="E7" t="n">
         <v>-10000301</v>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>4</v>
       </c>
@@ -616,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,10 +633,9 @@
         <v>3</v>
       </c>
       <c r="C1" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2"/>
+        <v>27</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -789,7 +787,6 @@
       <c r="E7" t="n">
         <v>-1199</v>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>4</v>
       </c>
@@ -825,7 +822,6 @@
       <c r="E8" t="n">
         <v>-1433</v>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>5</v>
       </c>
@@ -861,7 +857,6 @@
       <c r="E9" t="n">
         <v>-3567</v>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>6</v>
       </c>
@@ -897,7 +892,6 @@
       <c r="E10" t="n">
         <v>-5701</v>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>7</v>
       </c>
@@ -933,7 +927,6 @@
       <c r="E11" t="n">
         <v>-7835</v>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>8</v>
       </c>
@@ -969,7 +962,6 @@
       <c r="E12" t="n">
         <v>-10149</v>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
         <v>9</v>
       </c>
@@ -1005,7 +997,6 @@
       <c r="E13" t="n">
         <v>-12283</v>
       </c>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
         <v>10</v>
       </c>
@@ -1041,7 +1032,6 @@
       <c r="E14" t="n">
         <v>-13517</v>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
         <v>11</v>
       </c>
@@ -1077,7 +1067,6 @@
       <c r="E15" t="n">
         <v>-13518</v>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>12</v>
       </c>
@@ -1113,7 +1102,6 @@
       <c r="E16" t="n">
         <v>-13520</v>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
         <v>13</v>
       </c>
@@ -1149,7 +1137,6 @@
       <c r="E17" t="n">
         <v>-13523</v>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
         <v>14</v>
       </c>
@@ -1185,7 +1172,6 @@
       <c r="E18" t="n">
         <v>-13657</v>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
         <v>15</v>
       </c>
@@ -1221,7 +1207,6 @@
       <c r="E19" t="n">
         <v>-13685</v>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
         <v>16</v>
       </c>
@@ -1257,7 +1242,6 @@
       <c r="E20" t="n">
         <v>-13719</v>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
         <v>17</v>
       </c>
@@ -1293,7 +1277,6 @@
       <c r="E21" t="n">
         <v>-14043</v>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>18</v>
       </c>
@@ -1329,7 +1312,6 @@
       <c r="E22" t="n">
         <v>-14367</v>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
         <v>19</v>
       </c>
@@ -1365,7 +1347,6 @@
       <c r="E23" t="n">
         <v>-14691</v>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
         <v>20</v>
       </c>
@@ -1401,7 +1382,6 @@
       <c r="E24" t="n">
         <v>-14719</v>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
         <v>21</v>
       </c>
@@ -1437,7 +1417,6 @@
       <c r="E25" t="n">
         <v>-14720</v>
       </c>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
         <v>22</v>
       </c>
@@ -1449,6 +1428,212 @@
       </c>
       <c r="J25" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>06/01/2022</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>25</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>06/01/2022</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>26</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>06/01/2022</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>تجديد اشتراك البوابه الالكترونيه</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>27</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>مسلسل</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب مرتبات</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xl.xlsx
+++ b/xl.xlsx
@@ -10,9 +10,14 @@
     <sheet name="Client 1 ( 1 )" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Client 2 ( 2 )" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="amr ahmad mahmoud al ( 0 )" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Amr ( 1111 )" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="No ( 111 )" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="عمرو ( 213 )" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="No ( 111 )" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="عمرو ( 213 )" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="مصروفات اداريه" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Test New ( 1212 )" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="sad ( 42635 )" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="123213 ( 7979 )" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="aDSFH ( 56873 )" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="VBCZ ( 87112 )" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -413,232 +418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Client 1</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>التاريخ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>الخدمه</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>التكلفه</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>المدفوع</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>الرصيد</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>الملاحظات</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>مسلسل</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>07/01/2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>اعداد و مراجعة ميزانيه</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>500</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>comment ....</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>08/01/2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>comment 2 ..</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>08/01/2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="n">
-        <v>300</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>comment 2 ..</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>07/01/2022</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>تجديد اشتراك البوابه الالكترونيه</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>200</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>comment 3 ...</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2022</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -655,6 +435,597 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>123213</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>7979</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>23123</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>asdfdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>مسلسل</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>aDSFH</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>56873</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>مسلسل</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>VBCZ</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>87112</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>مسلسل</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب مرتبات</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Client 1</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>مسلسل</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>07/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>500</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>comment ....</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>400</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>comment 2 ..</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>300</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>comment 2 ..</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>07/01/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>تجديد اشتراك البوابه الالكترونيه</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>comment 3 ...</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>شسيسشي</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Client 2</t>
         </is>
       </c>
@@ -738,6 +1109,30 @@
       </c>
       <c r="J4" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>شسي</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -864,14 +1259,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Amr</t>
+          <t>No</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1111</v>
+        <v>111</v>
       </c>
       <c r="C1" t="n">
         <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -919,21 +1327,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>اقرار ضرائب عامه</t>
+          <t>اضافة سياره</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>1212</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>1200</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>sfds</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -971,26 +1379,28 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>عمرو</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="C1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" t="n">
-        <v>21</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>213</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>شبءسي</t>
         </is>
       </c>
     </row>
@@ -1039,21 +1449,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>اضافة سياره</t>
+          <t>اعداد و مراجعة ميزانيه</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1212</v>
+        <v>123</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E4" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>sfds</t>
+          <t>يسب</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1075,6 +1485,141 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>electricity</t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>مياه</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>مياه</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>300</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1091,28 +1636,28 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>عمرو</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>213</v>
+        <v>42635</v>
       </c>
       <c r="C1" t="n">
         <v>1</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>123</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>شبءسي</t>
+          <t>sadf</t>
         </is>
       </c>
     </row>
@@ -1156,26 +1701,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11/01/2022</t>
+          <t>12/01/2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>اعداد و مراجعة ميزانيه</t>
+          <t>بطاقه ضريبيه</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>يسب</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1188,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/xl.xlsx
+++ b/xl.xlsx
@@ -18,6 +18,12 @@
     <sheet name="123213 ( 7979 )" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="aDSFH ( 56873 )" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="VBCZ ( 87112 )" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Date_test ( 29 )" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="test2 ( 2112 )" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="test_last ( 213522 )" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="last ( 1111111 )" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="my_last ( 9999 )" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="loop ( 777 )" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -571,8 +577,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -631,7 +635,6 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>1</v>
       </c>
@@ -651,6 +654,286 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>VBCZ</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>87112</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>مسلسل</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13/01/2000</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب مرتبات</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date_test</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>مسلسل</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>بطاقه ضريبيه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" t="n">
+        <v>90</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب مرتبات</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -667,11 +950,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>VBCZ</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>87112</v>
+        <v>2112</v>
       </c>
       <c r="C1" t="n">
         <v>1</v>
@@ -681,8 +964,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -724,35 +1005,1072 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>90</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test_last</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>213522</v>
+      </c>
+      <c r="C1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>مسلسل</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اضافة سياره</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>300</v>
+      </c>
+      <c r="E5" t="n">
+        <v>700</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10/01/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1111111</v>
+      </c>
+      <c r="C1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>مسلسل</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>17/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>اضافة سياره</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>900</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>17/01/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>اضافة سياره</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>900</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2609</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>my_last</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>9999</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>مسلسل</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>900</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب مرتبات</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>900</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>loop</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>777</v>
+      </c>
+      <c r="C1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>مسلسل</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>05/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>بطاقه ضريبيه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10/01/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10/01/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>90</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>12/01/2022</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>200</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>90</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14/01/2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>اقرار ضرائب مرتبات</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12</v>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>90</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>تجديد اشتراك البوابه الالكترونيه</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>90</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>44931</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +2084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P1048577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1002,6 +2320,105 @@
       </c>
       <c r="P8" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/01/2020</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1048577">
+      <c r="A1048577" t="inlineStr">
+        <is>
+          <t>04/01/2022</t>
+        </is>
+      </c>
+      <c r="B1048577" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C1048577" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1048577" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1048577" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1048577" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1048577" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I1048577" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1048577" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1010,6 +2427,236 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Client 2</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>مسلسل</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>07/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>تسوية ملف ضريبى</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>comment .......</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>شسي</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>اتعاب لجنه داخلية</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>اضافة سياره</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب مرتبات</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1026,11 +2673,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Client 2</t>
+          <t>amr ahmad mahmoud al</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="n">
         <v>1</v>
@@ -1081,22 +2728,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>تسوية ملف ضريبى</t>
+          <t>اقرار ضرائب عامه</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>comment .......</t>
-        </is>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -1114,16 +2756,11 @@
     <row r="5">
       <c r="K5" t="inlineStr">
         <is>
-          <t>12/01/2022</t>
+          <t>13/01/2022</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>شسي</t>
-        </is>
+        <v>1110</v>
       </c>
       <c r="N5" t="n">
         <v>2022</v>
@@ -1132,109 +2769,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>amr ahmad mahmoud al</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>التاريخ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>الخدمه</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>التكلفه</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>المدفوع</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>الرصيد</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>الملاحظات</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>مسلسل</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>07/01/2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>اقرار ضرائب عامه</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +2783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1266,7 +2801,7 @@
         <v>111</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="n">
         <v>21</v>
@@ -1355,6 +2890,39 @@
       </c>
       <c r="J4" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1368,7 +2936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,7 +2954,7 @@
         <v>213</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
@@ -1444,39 +3012,114 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>04/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>11/01/2022</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>اعداد و مراجعة ميزانيه</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>123</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>123</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>يسب</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
         <v>11</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>تجديد اشتراك البوابه الالكترونيه</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>44574</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +3133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1591,6 +3234,54 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>telephone</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12/01/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>telephone(dec)</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
         <v>12</v>
       </c>
     </row>

--- a/xl.xlsx
+++ b/xl.xlsx
@@ -7,10 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="C 0 ( 0 )" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="C 1 ( 1 )" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="C 2 ( 2 )" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="مصروفات اداريه" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="مصروفات اداريه" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="C0 ( 0 )" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -397,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,181 +426,45 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C 0</t>
+          <t>03/01/2022</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>01091986041</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>..........</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>التاريخ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>الخدمه</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>التكلفه</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>المدفوع</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>الرصيد</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>الملاحظات</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>مسلسل</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>04/01/2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>بطاقه ضريبيه</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>400</v>
-      </c>
-      <c r="E4" t="n">
-        <v>600</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
+        <v>200</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="D1" t="n">
         <v>2022</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>44565</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>12/01/2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>بطاقه ضريبيه</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="E1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15/01/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>100</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
         <v>2022</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>44573</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14/01/2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>اقرار ضرائب مرتبات</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>200</v>
-      </c>
-      <c r="E6" t="n">
-        <v>800</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>No comments</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>44575</v>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -627,31 +489,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C 1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>No number</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>No Address</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -692,22 +545,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05/01/2022</t>
+          <t>03/01/2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>اقرار ضرائب مرتبات</t>
+          <t>اقرار ضرائب عامه</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
@@ -720,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>44566</v>
+        <v>44564</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10/01/2022</t>
+          <t>04/01/2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -738,17 +591,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D5" t="n">
+        <v>200</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>2022</v>
@@ -757,35 +609,35 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>44571</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25/01/2022</t>
+          <t>04/01/2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>اقرار ضرائب قيمه مضافه</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>1500</v>
+        <v>-100</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>2022</v>
@@ -794,274 +646,46 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>44586</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>14/01/2022</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15/01/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>600</v>
+      </c>
+      <c r="E7" t="n">
+        <v>300</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>2022</v>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>C 2</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>التاريخ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>الخدمه</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>التكلفه</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>المدفوع</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>الرصيد</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>الملاحظات</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>مسلسل</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>14/12/2021</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>اقرار ضرائب عامه</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>200</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2021</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>44544</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>06/01/2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>اعداد و مراجعة ميزانيه</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>44567</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>11/01/2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>اقرار ضرائب قيمه مضافه</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E6" t="n">
-        <v>500</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>44572</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>03/01/2022</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>200</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>taxes</t>
-        </is>
-      </c>
-      <c r="D1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1" t="n">
-        <v>3</v>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>44576</v>
       </c>
     </row>
   </sheetData>

--- a/xl.xlsx
+++ b/xl.xlsx
@@ -7,8 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="مصروفات اداريه" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="C0 ( 0 )" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="C0 (0)" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -395,7 +394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,69 +425,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>03/01/2022</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>200</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>taxes</t>
-        </is>
-      </c>
-      <c r="D1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>15/01/2022</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>C0</t>
         </is>
       </c>
@@ -504,7 +440,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -545,59 +480,58 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03/01/2022</t>
+          <t>27/12/2021</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>اقرار ضرائب عامه</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>-100</v>
+      </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>44564</v>
+        <v>44557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04/01/2022</t>
+          <t>03/01/2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>بطاقه ضريبيه</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -609,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>44565</v>
+        <v>44564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04/01/2022</t>
+          <t>03/01/2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -633,7 +567,7 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
@@ -646,31 +580,31 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>44565</v>
+        <v>44564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15/01/2022</t>
+          <t>10/01/2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>اقرار ضرائب قيمه مضافه</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>1000</v>
       </c>
-      <c r="D7" t="n">
-        <v>600</v>
-      </c>
       <c r="E7" t="n">
-        <v>300</v>
+        <v>-1300</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -682,10 +616,154 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>44576</v>
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/01/2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1300</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16/01/2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-500</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>44577</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>21/01/2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-600</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>44582</v>
       </c>
     </row>
   </sheetData>
